--- a/引用網頁.xlsx
+++ b/引用網頁.xlsx
@@ -10286,8 +10286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
